--- a/data/extracted_data/raw_round2/Estrada_2007_Fig_5.xlsx
+++ b/data/extracted_data/raw_round2/Estrada_2007_Fig_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642E5E0-FCF1-2545-BB24-6F4077265D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4642E5E0-FCF1-2545-BB24-6F4077265D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C618EC-021F-2448-BB27-8ED4D8EFB171}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="4380" windowWidth="27640" windowHeight="16940" xr2:uid="{E594D2FD-39C2-3145-9DB5-11348E2357B7}"/>
+    <workbookView xWindow="0" yWindow="7340" windowWidth="28800" windowHeight="16260" xr2:uid="{E594D2FD-39C2-3145-9DB5-11348E2357B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>treatment</t>
+    <t>day</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>toxticity</t>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -103,9 +97,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +137,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -249,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,110 +393,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4B351-962D-7C4E-A276-918D70C7DA7E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>496.32653061224403</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
         <v>483.26530612244898</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
         <v>620.40816326530603</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
         <v>711.83673469387702</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6">
         <v>308.93371757925001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
         <v>260.51873198847198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
         <v>186.74351585014401</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9">
         <v>110.66282420749199</v>
       </c>
     </row>

--- a/data/extracted_data/raw_round2/Estrada_2007_Fig_5.xlsx
+++ b/data/extracted_data/raw_round2/Estrada_2007_Fig_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4642E5E0-FCF1-2545-BB24-6F4077265D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C618EC-021F-2448-BB27-8ED4D8EFB171}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4642E5E0-FCF1-2545-BB24-6F4077265D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1A1F38-8D3F-D447-906B-01B224FC1FE6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7340" windowWidth="28800" windowHeight="16260" xr2:uid="{E594D2FD-39C2-3145-9DB5-11348E2357B7}"/>
+    <workbookView xWindow="3880" yWindow="1020" windowWidth="28800" windowHeight="16140" xr2:uid="{E594D2FD-39C2-3145-9DB5-11348E2357B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -94,6 +103,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,83 +406,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4B351-962D-7C4E-A276-918D70C7DA7E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>496.32653061224403</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>483.26530612244898</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>620.40816326530603</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>711.83673469387702</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>308.93371757925001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>260.51873198847198</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>186.74351585014401</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>110.66282420749199</v>
       </c>
     </row>
